--- a/jpcore-r4/feature/改行テスト/StructureDefinition-JP-ResearchSubject.xlsx
+++ b/jpcore-r4/feature/改行テスト/StructureDefinition-JP-ResearchSubject.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="928" uniqueCount="205">
   <si>
     <t>Property</t>
   </si>
@@ -155,10 +155,6 @@
     <t>公衆衛生研究を網羅することを確認する必要があります。 / Need to make sure we encompass public health studies.</t>
   </si>
   <si>
-    <t>dom-2:リソースが別のリソースに含まれている場合、ネストされたリソースを含めてはなりません / If the resource is contained in another resource, it SHALL NOT contain nested Resources {contained.contained.empty()}
-dom-3:リソースが別のリソースに含まれている場合、それはリソースの他の場所から参照されるか、含有リソースを参照するものとします / If the resource is contained in another resource, it SHALL be referred to from elsewhere in the resource or SHALL refer to the containing resource {contained.where((('#'+id in (%resource.descendants().reference | %resource.descendants().as(canonical) | %resource.descendants().as(uri) | %resource.descendants().as(url))) or descendants().where(reference = '#').exists() or descendants().where(as(canonical) = '#').exists() or descendants().where(as(canonical) = '#').exists()).not()).trace('unmatched', id).empty()}dom-4:リソースが別のリソースに含まれている場合、meta.versionidまたはmeta.lastupdatedを持たないものとします / If a resource is contained in another resource, it SHALL NOT have a meta.versionId or a meta.lastUpdated {contained.meta.versionId.empty() and contained.meta.lastUpdated.empty()}dom-5:別のリソースにリソースが含まれている場合、セキュリティラベルはありません / If a resource is contained in another resource, it SHALL NOT have a security label {contained.meta.security.empty()}dom-6:リソースには、堅牢な管理のための叙述(Narative)が必要です / A resource should have narrative for robust management {text.`div`.exists()}</t>
-  </si>
-  <si>
     <t>StudySubject</t>
   </si>
   <si>
@@ -209,208 +205,208 @@
     <t>Resource.meta</t>
   </si>
   <si>
+    <t>ResearchSubject.meta.id</t>
+  </si>
+  <si>
+    <t xml:space="preserve">string
+</t>
+  </si>
+  <si>
+    <t>エレメント相互参照のためのユニークID</t>
+  </si>
+  <si>
+    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
+  </si>
+  <si>
+    <t>Element.id</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.extension</t>
+  </si>
+  <si>
+    <t>extensions
+user content</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Extension
+</t>
+  </si>
+  <si>
+    <t>実装によって定義される追加コンテンツ</t>
+  </si>
+  <si>
+    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
+  </si>
+  <si>
+    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
+  </si>
+  <si>
+    <t xml:space="preserve">value:url}
+</t>
+  </si>
+  <si>
+    <t>拡張子は常にURLで切り片にされます。</t>
+  </si>
+  <si>
+    <t>open</t>
+  </si>
+  <si>
+    <t>Element.extension</t>
+  </si>
+  <si>
+    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.versionId</t>
+  </si>
+  <si>
+    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
+  </si>
+  <si>
+    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
+  </si>
+  <si>
+    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
+  </si>
+  <si>
+    <t>Meta.versionId</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
+</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.lastUpdated</t>
+  </si>
+  <si>
+    <t xml:space="preserve">instant
+</t>
+  </si>
+  <si>
+    <t>リソースのバージョンが最後に変更されたとき</t>
+  </si>
+  <si>
+    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
+  </si>
+  <si>
+    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
+  </si>
+  <si>
+    <t>Meta.lastUpdated</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.source</t>
+  </si>
+  <si>
+    <t xml:space="preserve">uri
+</t>
+  </si>
+  <si>
+    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
+  </si>
+  <si>
+    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
+  </si>
+  <si>
+    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
+この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
+  </si>
+  <si>
+    <t>Meta.source</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">canonical(StructureDefinition)
+</t>
+  </si>
+  <si>
+    <t>このリソースが適合を主張するプロファイル</t>
+  </si>
+  <si>
+    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
+  </si>
+  <si>
+    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
+  </si>
+  <si>
+    <t>Meta.profile</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.security</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Coding
+</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたセキュリティラベル</t>
+  </si>
+  <si>
+    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
+  </si>
+  <si>
+    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>extensible</t>
+  </si>
+  <si>
+    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
+  </si>
+  <si>
+    <t>Meta.security</t>
+  </si>
+  <si>
+    <t>ResearchSubject.meta.tag</t>
+  </si>
+  <si>
+    <t>このリソースに適用されたタグ</t>
+  </si>
+  <si>
+    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
+  </si>
+  <si>
+    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
+  </si>
+  <si>
+    <t>example</t>
+  </si>
+  <si>
+    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
+  </si>
+  <si>
+    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
+  </si>
+  <si>
+    <t>Meta.tag</t>
+  </si>
+  <si>
+    <t>ResearchSubject.implicitRules</t>
+  </si>
+  <si>
+    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
+  </si>
+  <si>
+    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
+  </si>
+  <si>
+    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
+  </si>
+  <si>
+    <t>Resource.implicitRules</t>
+  </si>
+  <si>
     <t xml:space="preserve">ele-1:すべてのFHIR要素には、@valueまたは子供が必要です / All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
 </t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.id</t>
-  </si>
-  <si>
-    <t xml:space="preserve">string
-</t>
-  </si>
-  <si>
-    <t>エレメント相互参照のためのユニークID</t>
-  </si>
-  <si>
-    <t>リソース内の要素の固有ID（内部参照用）。これは、スペースを含まない任意の文字列値である可能性があります。</t>
-  </si>
-  <si>
-    <t>Element.id</t>
-  </si>
-  <si>
-    <t>n/a</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.extension</t>
-  </si>
-  <si>
-    <t>extensions
-user content</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Extension
-</t>
-  </si>
-  <si>
-    <t>実装によって定義される追加コンテンツ</t>
-  </si>
-  <si>
-    <t>要素の基本的な定義に含まれない追加情報を表すために使用されることがあります。拡張機能の使用を安全かつ管理しやすくするために、定義および使用に適用される厳格なガバナンスのセットがあります。実装者は拡張機能を定義できますが、拡張機能の定義の一部として満たす必要のある要件のセットがあります。</t>
-  </si>
-  <si>
-    <t>どのようなアプリケーション、プロジェクト、または標準が拡張機能を使用しているかに関わらず、拡張機能の使用には決して汚名が付くわけではありません - それらを使用または定義する機関または管轄区域に関係なく。拡張機能の使用こそが、FHIR仕様を誰にとっても簡単なコアレベルで維持することを可能にします。</t>
-  </si>
-  <si>
-    <t xml:space="preserve">value:url}
-</t>
-  </si>
-  <si>
-    <t>拡張子は常にURLで切り片にされます。</t>
-  </si>
-  <si>
-    <t>open</t>
-  </si>
-  <si>
-    <t>Element.extension</t>
-  </si>
-  <si>
-    <t>ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-ext-1:拡張機能または値[x]のいずれかが必要です。両方ではありません。 {extension.exists() != value.exists()}</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.versionId</t>
-  </si>
-  <si>
-    <t>バージョン固有の識別子 (Baajon koyū no shikibetsu-shi)</t>
-  </si>
-  <si>
-    <t>URLのバージョン部分に表示されるバージョン固有の識別子。この値は、リソースが作成、更新、または削除された場合に変更されます。</t>
-  </si>
-  <si>
-    <t>サーバーがこの値を割り当て、クライアントが指定した値を無視する。ただし、サーバーが更新/削除時にバージョンの整合性を強制する場合を除く。</t>
-  </si>
-  <si>
-    <t>Meta.versionId</t>
-  </si>
-  <si>
-    <t xml:space="preserve">ele-1:すべてのFHIR要素は、@valueまたはchildrenを持っている必要があります。 {hasValue() or (children().count() &gt; id.count())}
-</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.lastUpdated</t>
-  </si>
-  <si>
-    <t xml:space="preserve">instant
-</t>
-  </si>
-  <si>
-    <t>リソースのバージョンが最後に変更されたとき</t>
-  </si>
-  <si>
-    <t>リソースが最後に変更されたとき - 例えば、バージョンが変更されたとき。</t>
-  </si>
-  <si>
-    <t>この値はリソースが初めて作成される場合を除いて常に設定されています。サーバー/リソースマネージャーがこの値を設定します。クライアントが提供する値は関係ありません。これはHTTP Last-Modifiedに相当し、[read](http://hl7.org/fhir/R4/http.html#read)のインタラクションで同じ値を持つべきです。</t>
-  </si>
-  <si>
-    <t>Meta.lastUpdated</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.source</t>
-  </si>
-  <si>
-    <t xml:space="preserve">uri
-</t>
-  </si>
-  <si>
-    <t>「リソースがどこから来たかを特定する」(Risōsu ga doko kara kita ka o tokutei suru)</t>
-  </si>
-  <si>
-    <t>リソースのソースシステムを識別するURI。これにより、リソース内の情報のソースをトラックまたは区別するために使用できる最小限の[プロビナンス]（provenance.html＃）情報が提供されます。ソースは、別のFHIRサーバー、ドキュメント、メッセージ、データベースなどを識別できます。</t>
-  </si>
-  <si>
-    <t>プロバナンスのリソースにおいて、これはProvenance.entity.what[x]に対応します。ソースの正確な使用方法（および含意されるProvenance.entity.role）は実装者の判断に委ねられます。指定されたソースは1つだけです。追加のプロバナンスの詳細が必要な場合は、完全なプロバナンスリソースを使用するべきです。
-この要素は、正規のURLでホストされていないリソースの現在のマスターソースがどこにあるかを示すために使用できます。</t>
-  </si>
-  <si>
-    <t>Meta.source</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.profile</t>
-  </si>
-  <si>
-    <t xml:space="preserve">canonical(StructureDefinition)
-</t>
-  </si>
-  <si>
-    <t>このリソースが適合を主張するプロファイル</t>
-  </si>
-  <si>
-    <t>このリソースが準拠すると主張する [StructureDefinition](http://hl7.org/fhir/R4/structuredefinition.html#) リソースに関するプロファイルのリストです。URL は [StructureDefinition.url](http://hl7.org/fhir/R4/structuredefinition-definitions.html#StructureDefinition.url) への参照です。</t>
-  </si>
-  <si>
-    <t>これらの主張が時間の経過に伴って検証または更新される方法と、それらを決定するサーバーや他の基盤に任されます。プロファイルURLのリストは1セットです。</t>
-  </si>
-  <si>
-    <t>Meta.profile</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.security</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Coding
-</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたセキュリティラベル</t>
-  </si>
-  <si>
-    <t>このリソースにはセキュリティラベルが適用されています。これらのタグにより、特定のリソースが全体的なセキュリティポリシーやインフラストラクチャに関連付けられます。</t>
-  </si>
-  <si>
-    <t>セキュリティラベルは変更せずにリソースのバージョンを更新可能です。セキュリティラベルのリストはセットであり、一意性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>extensible</t>
-  </si>
-  <si>
-    <t>医療プライバシーおよびセキュリティ分類システムからのセキュリティラベル。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/security-labels</t>
-  </si>
-  <si>
-    <t>Meta.security</t>
-  </si>
-  <si>
-    <t>ResearchSubject.meta.tag</t>
-  </si>
-  <si>
-    <t>このリソースに適用されたタグ</t>
-  </si>
-  <si>
-    <t>このリソースに適用されるタグです。タグは、リソースをプロセスやワークフローに識別し、関連付けるために使用することが意図されており、アプリケーションはリソースの意味を解釈する際にタグを考慮する必要はありません。</t>
-  </si>
-  <si>
-    <t>リソースの表示バージョンを変更することなく、タグを更新できます。タグのリストは集合です。ユニーク性はシステム/コードに基づき、バージョンと表示は無視されます。</t>
-  </si>
-  <si>
-    <t>example</t>
-  </si>
-  <si>
-    <t>様々なタグを表すコードで、一般的にはワークフローに関連しています。例：「ジョーンズ博士によるレビューが必要です」。</t>
-  </si>
-  <si>
-    <t>http://hl7.org/fhir/ValueSet/common-tags</t>
-  </si>
-  <si>
-    <t>Meta.tag</t>
-  </si>
-  <si>
-    <t>ResearchSubject.implicitRules</t>
-  </si>
-  <si>
-    <t>このコンテンツが作成されたルールのセット / A set of rules under which this content was created</t>
-  </si>
-  <si>
-    <t>リソースが構築されたときに従った一連のルールへの参照。コンテンツの処理時に理解する必要があります。多くの場合、これは他のプロファイルなどとともに特別なルールを定義する実装ガイドへの参照です。 / A reference to a set of rules that were followed when the resource was constructed, and which must be understood when processing the content. Often, this is a reference to an implementation guide that defines the special rules along with other profiles etc.</t>
-  </si>
-  <si>
-    <t>このルールセットを主張することは、コンテンツが限られた取引パートナーのセットによってのみ理解されることを制限します。これにより、本質的に長期的にデータの有用性が制限されます。ただし、既存の健康エコシステムは非常に破壊されており、一般的に計算可能な意味でデータを定義、収集、交換する準備ができていません。可能な限り、実装者や仕様ライターはこの要素の使用を避ける必要があります。多くの場合、使用する場合、URLは、これらの特別なルールを他のプロファイル、バリューセットなどとともに叙述(Narative)の一部として定義する実装ガイドへの参照です。 / Asserting this rule set restricts the content to be only understood by a limited set of trading partners. This inherently limits the usefulness of the data in the long term. However, the existing health eco-system is highly fractured, and not yet ready to define, collect, and exchange data in a generally computable sense. Wherever possible, implementers and/or specification writers should avoid using this element. Often, when used, the URL is a reference to an implementation guide that defines these special rules as part of it's narrative along with other profiles, value sets, etc.</t>
-  </si>
-  <si>
-    <t>Resource.implicitRules</t>
   </si>
   <si>
     <t>ResearchSubject.language</t>
@@ -1132,16 +1128,16 @@
         <v>40</v>
       </c>
       <c r="AJ1" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AK1" t="s" s="2">
         <v>45</v>
       </c>
-      <c r="AK1" t="s" s="2">
+      <c r="AL1" t="s" s="2">
         <v>46</v>
       </c>
-      <c r="AL1" t="s" s="2">
+      <c r="AM1" t="s" s="2">
         <v>47</v>
-      </c>
-      <c r="AM1" t="s" s="2">
-        <v>48</v>
       </c>
       <c r="AN1" t="s" s="2">
         <v>40</v>
@@ -1149,10 +1145,10 @@
     </row>
     <row r="2" hidden="true">
       <c r="A2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" t="s" s="2">
@@ -1163,28 +1159,28 @@
         <v>38</v>
       </c>
       <c r="G2" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I2" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J2" t="s" s="2">
+      <c r="K2" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K2" t="s" s="2">
+      <c r="L2" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="L2" t="s" s="2">
+      <c r="M2" t="s" s="2">
         <v>53</v>
       </c>
-      <c r="M2" t="s" s="2">
+      <c r="N2" t="s" s="2">
         <v>54</v>
-      </c>
-      <c r="N2" t="s" s="2">
-        <v>55</v>
       </c>
       <c r="O2" s="2"/>
       <c r="P2" t="s" s="2">
@@ -1234,13 +1230,13 @@
         <v>40</v>
       </c>
       <c r="AF2" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="AG2" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH2" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI2" t="s" s="2">
         <v>40</v>
@@ -1263,10 +1259,10 @@
     </row>
     <row r="3" hidden="true">
       <c r="A3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="2"/>
       <c r="D3" t="s" s="2">
@@ -1277,25 +1273,25 @@
         <v>38</v>
       </c>
       <c r="G3" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I3" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J3" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I3" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J3" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K3" t="s" s="2">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s" s="2">
         <v>58</v>
       </c>
-      <c r="L3" t="s" s="2">
+      <c r="M3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="M3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="N3" s="2"/>
       <c r="O3" s="2"/>
@@ -1346,19 +1342,19 @@
         <v>40</v>
       </c>
       <c r="AF3" t="s" s="2">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="AG3" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH3" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI3" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ3" t="s" s="2">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="AK3" t="s" s="2">
         <v>40</v>
@@ -1375,10 +1371,10 @@
     </row>
     <row r="4" hidden="true">
       <c r="A4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B4" t="s" s="2">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" t="s" s="2">
@@ -1389,7 +1385,7 @@
         <v>38</v>
       </c>
       <c r="G4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H4" t="s" s="2">
         <v>40</v>
@@ -1401,13 +1397,13 @@
         <v>40</v>
       </c>
       <c r="K4" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="M4" t="s" s="2">
         <v>64</v>
-      </c>
-      <c r="L4" t="s" s="2">
-        <v>65</v>
-      </c>
-      <c r="M4" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="N4" s="2"/>
       <c r="O4" s="2"/>
@@ -1458,13 +1454,13 @@
         <v>40</v>
       </c>
       <c r="AF4" t="s" s="2">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="AG4" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH4" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI4" t="s" s="2">
         <v>40</v>
@@ -1479,7 +1475,7 @@
         <v>40</v>
       </c>
       <c r="AM4" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN4" t="s" s="2">
         <v>40</v>
@@ -1487,14 +1483,14 @@
     </row>
     <row r="5" hidden="true">
       <c r="A5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B5" t="s" s="2">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C5" s="2"/>
       <c r="D5" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" t="s" s="2">
@@ -1513,16 +1509,16 @@
         <v>40</v>
       </c>
       <c r="K5" t="s" s="2">
+        <v>69</v>
+      </c>
+      <c r="L5" t="s" s="2">
+        <v>70</v>
+      </c>
+      <c r="M5" t="s" s="2">
         <v>71</v>
       </c>
-      <c r="L5" t="s" s="2">
+      <c r="N5" t="s" s="2">
         <v>72</v>
-      </c>
-      <c r="M5" t="s" s="2">
-        <v>73</v>
-      </c>
-      <c r="N5" t="s" s="2">
-        <v>74</v>
       </c>
       <c r="O5" s="2"/>
       <c r="P5" t="s" s="2">
@@ -1560,19 +1556,19 @@
         <v>40</v>
       </c>
       <c r="AB5" t="s" s="2">
+        <v>73</v>
+      </c>
+      <c r="AC5" t="s" s="2">
+        <v>74</v>
+      </c>
+      <c r="AD5" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="s" s="2">
         <v>75</v>
       </c>
-      <c r="AC5" t="s" s="2">
+      <c r="AF5" t="s" s="2">
         <v>76</v>
-      </c>
-      <c r="AD5" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE5" t="s" s="2">
-        <v>77</v>
-      </c>
-      <c r="AF5" t="s" s="2">
-        <v>78</v>
       </c>
       <c r="AG5" t="s" s="2">
         <v>38</v>
@@ -1584,7 +1580,7 @@
         <v>40</v>
       </c>
       <c r="AJ5" t="s" s="2">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="AK5" t="s" s="2">
         <v>40</v>
@@ -1593,7 +1589,7 @@
         <v>40</v>
       </c>
       <c r="AM5" t="s" s="2">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="AN5" t="s" s="2">
         <v>40</v>
@@ -1601,10 +1597,10 @@
     </row>
     <row r="6" hidden="true">
       <c r="A6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s" s="2">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C6" s="2"/>
       <c r="D6" t="s" s="2">
@@ -1615,28 +1611,28 @@
         <v>38</v>
       </c>
       <c r="G6" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I6" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I6" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J6" t="s" s="2">
+      <c r="K6" t="s" s="2">
         <v>51</v>
       </c>
-      <c r="K6" t="s" s="2">
-        <v>52</v>
-      </c>
       <c r="L6" t="s" s="2">
+        <v>79</v>
+      </c>
+      <c r="M6" t="s" s="2">
+        <v>80</v>
+      </c>
+      <c r="N6" t="s" s="2">
         <v>81</v>
-      </c>
-      <c r="M6" t="s" s="2">
-        <v>82</v>
-      </c>
-      <c r="N6" t="s" s="2">
-        <v>83</v>
       </c>
       <c r="O6" s="2"/>
       <c r="P6" t="s" s="2">
@@ -1686,19 +1682,19 @@
         <v>40</v>
       </c>
       <c r="AF6" t="s" s="2">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AG6" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH6" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI6" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ6" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK6" t="s" s="2">
         <v>40</v>
@@ -1715,10 +1711,10 @@
     </row>
     <row r="7" hidden="true">
       <c r="A7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B7" t="s" s="2">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C7" s="2"/>
       <c r="D7" t="s" s="2">
@@ -1729,28 +1725,28 @@
         <v>38</v>
       </c>
       <c r="G7" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H7" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H7" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="I7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="J7" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K7" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="L7" t="s" s="2">
+        <v>86</v>
+      </c>
+      <c r="M7" t="s" s="2">
         <v>87</v>
       </c>
-      <c r="L7" t="s" s="2">
+      <c r="N7" t="s" s="2">
         <v>88</v>
-      </c>
-      <c r="M7" t="s" s="2">
-        <v>89</v>
-      </c>
-      <c r="N7" t="s" s="2">
-        <v>90</v>
       </c>
       <c r="O7" s="2"/>
       <c r="P7" t="s" s="2">
@@ -1800,19 +1796,19 @@
         <v>40</v>
       </c>
       <c r="AF7" t="s" s="2">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="AG7" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH7" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI7" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ7" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK7" t="s" s="2">
         <v>40</v>
@@ -1829,10 +1825,10 @@
     </row>
     <row r="8" hidden="true">
       <c r="A8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="B8" t="s" s="2">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C8" s="2"/>
       <c r="D8" t="s" s="2">
@@ -1843,28 +1839,28 @@
         <v>38</v>
       </c>
       <c r="G8" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I8" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I8" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K8" t="s" s="2">
+        <v>91</v>
+      </c>
+      <c r="L8" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="M8" t="s" s="2">
         <v>93</v>
       </c>
-      <c r="L8" t="s" s="2">
+      <c r="N8" t="s" s="2">
         <v>94</v>
-      </c>
-      <c r="M8" t="s" s="2">
-        <v>95</v>
-      </c>
-      <c r="N8" t="s" s="2">
-        <v>96</v>
       </c>
       <c r="O8" s="2"/>
       <c r="P8" t="s" s="2">
@@ -1914,19 +1910,19 @@
         <v>40</v>
       </c>
       <c r="AF8" t="s" s="2">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="AG8" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH8" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI8" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ8" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK8" t="s" s="2">
         <v>40</v>
@@ -1943,10 +1939,10 @@
     </row>
     <row r="9" hidden="true">
       <c r="A9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="B9" t="s" s="2">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C9" s="2"/>
       <c r="D9" t="s" s="2">
@@ -1966,19 +1962,19 @@
         <v>40</v>
       </c>
       <c r="J9" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K9" t="s" s="2">
+        <v>97</v>
+      </c>
+      <c r="L9" t="s" s="2">
+        <v>98</v>
+      </c>
+      <c r="M9" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="L9" t="s" s="2">
+      <c r="N9" t="s" s="2">
         <v>100</v>
-      </c>
-      <c r="M9" t="s" s="2">
-        <v>101</v>
-      </c>
-      <c r="N9" t="s" s="2">
-        <v>102</v>
       </c>
       <c r="O9" s="2"/>
       <c r="P9" t="s" s="2">
@@ -2028,7 +2024,7 @@
         <v>40</v>
       </c>
       <c r="AF9" t="s" s="2">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="AG9" t="s" s="2">
         <v>38</v>
@@ -2040,7 +2036,7 @@
         <v>40</v>
       </c>
       <c r="AJ9" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK9" t="s" s="2">
         <v>40</v>
@@ -2057,10 +2053,10 @@
     </row>
     <row r="10" hidden="true">
       <c r="A10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="s" s="2">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C10" s="2"/>
       <c r="D10" t="s" s="2">
@@ -2080,19 +2076,19 @@
         <v>40</v>
       </c>
       <c r="J10" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K10" t="s" s="2">
+        <v>103</v>
+      </c>
+      <c r="L10" t="s" s="2">
+        <v>104</v>
+      </c>
+      <c r="M10" t="s" s="2">
         <v>105</v>
       </c>
-      <c r="L10" t="s" s="2">
+      <c r="N10" t="s" s="2">
         <v>106</v>
-      </c>
-      <c r="M10" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="N10" t="s" s="2">
-        <v>108</v>
       </c>
       <c r="O10" s="2"/>
       <c r="P10" t="s" s="2">
@@ -2118,31 +2114,31 @@
         <v>40</v>
       </c>
       <c r="X10" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="Y10" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="Z10" t="s" s="2">
         <v>109</v>
       </c>
-      <c r="Y10" t="s" s="2">
+      <c r="AA10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE10" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF10" t="s" s="2">
         <v>110</v>
-      </c>
-      <c r="Z10" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="AA10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE10" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF10" t="s" s="2">
-        <v>112</v>
       </c>
       <c r="AG10" t="s" s="2">
         <v>38</v>
@@ -2154,7 +2150,7 @@
         <v>40</v>
       </c>
       <c r="AJ10" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK10" t="s" s="2">
         <v>40</v>
@@ -2171,10 +2167,10 @@
     </row>
     <row r="11" hidden="true">
       <c r="A11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B11" t="s" s="2">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C11" s="2"/>
       <c r="D11" t="s" s="2">
@@ -2194,19 +2190,19 @@
         <v>40</v>
       </c>
       <c r="J11" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K11" t="s" s="2">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="L11" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="M11" t="s" s="2">
+        <v>113</v>
+      </c>
+      <c r="N11" t="s" s="2">
         <v>114</v>
-      </c>
-      <c r="M11" t="s" s="2">
-        <v>115</v>
-      </c>
-      <c r="N11" t="s" s="2">
-        <v>116</v>
       </c>
       <c r="O11" s="2"/>
       <c r="P11" t="s" s="2">
@@ -2232,31 +2228,31 @@
         <v>40</v>
       </c>
       <c r="X11" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="Y11" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="Z11" t="s" s="2">
         <v>117</v>
       </c>
-      <c r="Y11" t="s" s="2">
+      <c r="AA11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE11" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF11" t="s" s="2">
         <v>118</v>
-      </c>
-      <c r="Z11" t="s" s="2">
-        <v>119</v>
-      </c>
-      <c r="AA11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE11" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF11" t="s" s="2">
-        <v>120</v>
       </c>
       <c r="AG11" t="s" s="2">
         <v>38</v>
@@ -2268,7 +2264,7 @@
         <v>40</v>
       </c>
       <c r="AJ11" t="s" s="2">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="AK11" t="s" s="2">
         <v>40</v>
@@ -2285,10 +2281,10 @@
     </row>
     <row r="12" hidden="true">
       <c r="A12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B12" t="s" s="2">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C12" s="2"/>
       <c r="D12" t="s" s="2">
@@ -2299,28 +2295,28 @@
         <v>38</v>
       </c>
       <c r="G12" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H12" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I12" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H12" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I12" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="J12" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K12" t="s" s="2">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="L12" t="s" s="2">
+        <v>120</v>
+      </c>
+      <c r="M12" t="s" s="2">
+        <v>121</v>
+      </c>
+      <c r="N12" t="s" s="2">
         <v>122</v>
-      </c>
-      <c r="M12" t="s" s="2">
-        <v>123</v>
-      </c>
-      <c r="N12" t="s" s="2">
-        <v>124</v>
       </c>
       <c r="O12" s="2"/>
       <c r="P12" t="s" s="2">
@@ -2370,19 +2366,19 @@
         <v>40</v>
       </c>
       <c r="AF12" t="s" s="2">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="AG12" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH12" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI12" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ12" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK12" t="s" s="2">
         <v>40</v>
@@ -2399,10 +2395,10 @@
     </row>
     <row r="13" hidden="true">
       <c r="A13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B13" t="s" s="2">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C13" s="2"/>
       <c r="D13" t="s" s="2">
@@ -2413,7 +2409,7 @@
         <v>38</v>
       </c>
       <c r="G13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H13" t="s" s="2">
         <v>40</v>
@@ -2425,16 +2421,16 @@
         <v>40</v>
       </c>
       <c r="K13" t="s" s="2">
+        <v>126</v>
+      </c>
+      <c r="L13" t="s" s="2">
         <v>127</v>
       </c>
-      <c r="L13" t="s" s="2">
+      <c r="M13" t="s" s="2">
         <v>128</v>
       </c>
-      <c r="M13" t="s" s="2">
+      <c r="N13" t="s" s="2">
         <v>129</v>
-      </c>
-      <c r="N13" t="s" s="2">
-        <v>130</v>
       </c>
       <c r="O13" s="2"/>
       <c r="P13" t="s" s="2">
@@ -2460,43 +2456,43 @@
         <v>40</v>
       </c>
       <c r="X13" t="s" s="2">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s" s="2">
         <v>131</v>
       </c>
-      <c r="Y13" t="s" s="2">
+      <c r="Z13" t="s" s="2">
         <v>132</v>
       </c>
-      <c r="Z13" t="s" s="2">
+      <c r="AA13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE13" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF13" t="s" s="2">
         <v>133</v>
       </c>
-      <c r="AA13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE13" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF13" t="s" s="2">
-        <v>134</v>
-      </c>
       <c r="AG13" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH13" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI13" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ13" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK13" t="s" s="2">
         <v>40</v>
@@ -2513,21 +2509,21 @@
     </row>
     <row r="14" hidden="true">
       <c r="A14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="C14" s="2"/>
       <c r="D14" t="s" s="2">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G14" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H14" t="s" s="2">
         <v>40</v>
@@ -2539,16 +2535,16 @@
         <v>40</v>
       </c>
       <c r="K14" t="s" s="2">
+        <v>136</v>
+      </c>
+      <c r="L14" t="s" s="2">
         <v>137</v>
       </c>
-      <c r="L14" t="s" s="2">
+      <c r="M14" t="s" s="2">
         <v>138</v>
       </c>
-      <c r="M14" t="s" s="2">
+      <c r="N14" t="s" s="2">
         <v>139</v>
-      </c>
-      <c r="N14" t="s" s="2">
-        <v>140</v>
       </c>
       <c r="O14" s="2"/>
       <c r="P14" t="s" s="2">
@@ -2598,28 +2594,28 @@
         <v>40</v>
       </c>
       <c r="AF14" t="s" s="2">
+        <v>140</v>
+      </c>
+      <c r="AG14" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AH14" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ14" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AL14" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM14" t="s" s="2">
         <v>141</v>
-      </c>
-      <c r="AG14" t="s" s="2">
-        <v>38</v>
-      </c>
-      <c r="AH14" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ14" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AL14" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM14" t="s" s="2">
-        <v>142</v>
       </c>
       <c r="AN14" t="s" s="2">
         <v>40</v>
@@ -2627,14 +2623,14 @@
     </row>
     <row r="15" hidden="true">
       <c r="A15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B15" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C15" s="2"/>
       <c r="D15" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" t="s" s="2">
@@ -2653,16 +2649,16 @@
         <v>40</v>
       </c>
       <c r="K15" t="s" s="2">
+        <v>144</v>
+      </c>
+      <c r="L15" t="s" s="2">
         <v>145</v>
       </c>
-      <c r="L15" t="s" s="2">
+      <c r="M15" t="s" s="2">
         <v>146</v>
       </c>
-      <c r="M15" t="s" s="2">
+      <c r="N15" t="s" s="2">
         <v>147</v>
-      </c>
-      <c r="N15" t="s" s="2">
-        <v>148</v>
       </c>
       <c r="O15" s="2"/>
       <c r="P15" t="s" s="2">
@@ -2712,7 +2708,7 @@
         <v>40</v>
       </c>
       <c r="AF15" t="s" s="2">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="AG15" t="s" s="2">
         <v>38</v>
@@ -2733,7 +2729,7 @@
         <v>40</v>
       </c>
       <c r="AM15" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN15" t="s" s="2">
         <v>40</v>
@@ -2741,14 +2737,14 @@
     </row>
     <row r="16" hidden="true">
       <c r="A16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B16" t="s" s="2">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="C16" s="2"/>
       <c r="D16" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" t="s" s="2">
@@ -2767,16 +2763,16 @@
         <v>40</v>
       </c>
       <c r="K16" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L16" t="s" s="2">
+        <v>151</v>
+      </c>
+      <c r="M16" t="s" s="2">
         <v>152</v>
       </c>
-      <c r="M16" t="s" s="2">
+      <c r="N16" t="s" s="2">
         <v>153</v>
-      </c>
-      <c r="N16" t="s" s="2">
-        <v>154</v>
       </c>
       <c r="O16" s="2"/>
       <c r="P16" t="s" s="2">
@@ -2826,7 +2822,7 @@
         <v>40</v>
       </c>
       <c r="AF16" t="s" s="2">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="AG16" t="s" s="2">
         <v>38</v>
@@ -2838,7 +2834,7 @@
         <v>40</v>
       </c>
       <c r="AJ16" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK16" t="s" s="2">
         <v>40</v>
@@ -2847,7 +2843,7 @@
         <v>40</v>
       </c>
       <c r="AM16" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN16" t="s" s="2">
         <v>40</v>
@@ -2855,14 +2851,14 @@
     </row>
     <row r="17" hidden="true">
       <c r="A17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B17" t="s" s="2">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" t="s" s="2">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" t="s" s="2">
@@ -2875,25 +2871,25 @@
         <v>40</v>
       </c>
       <c r="I17" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="J17" t="s" s="2">
         <v>40</v>
       </c>
       <c r="K17" t="s" s="2">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="L17" t="s" s="2">
+        <v>157</v>
+      </c>
+      <c r="M17" t="s" s="2">
         <v>158</v>
       </c>
-      <c r="M17" t="s" s="2">
+      <c r="N17" t="s" s="2">
+        <v>153</v>
+      </c>
+      <c r="O17" t="s" s="2">
         <v>159</v>
-      </c>
-      <c r="N17" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="O17" t="s" s="2">
-        <v>160</v>
       </c>
       <c r="P17" t="s" s="2">
         <v>40</v>
@@ -2942,7 +2938,7 @@
         <v>40</v>
       </c>
       <c r="AF17" t="s" s="2">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="AG17" t="s" s="2">
         <v>38</v>
@@ -2954,7 +2950,7 @@
         <v>40</v>
       </c>
       <c r="AJ17" t="s" s="2">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="AK17" t="s" s="2">
         <v>40</v>
@@ -2963,7 +2959,7 @@
         <v>40</v>
       </c>
       <c r="AM17" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="AN17" t="s" s="2">
         <v>40</v>
@@ -2971,10 +2967,10 @@
     </row>
     <row r="18" hidden="true">
       <c r="A18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C18" s="2"/>
       <c r="D18" t="s" s="2">
@@ -2994,16 +2990,16 @@
         <v>40</v>
       </c>
       <c r="J18" t="s" s="2">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="K18" t="s" s="2">
+        <v>162</v>
+      </c>
+      <c r="L18" t="s" s="2">
         <v>163</v>
       </c>
-      <c r="L18" t="s" s="2">
+      <c r="M18" t="s" s="2">
         <v>164</v>
-      </c>
-      <c r="M18" t="s" s="2">
-        <v>165</v>
       </c>
       <c r="N18" s="2"/>
       <c r="O18" s="2"/>
@@ -3054,7 +3050,7 @@
         <v>40</v>
       </c>
       <c r="AF18" t="s" s="2">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="AG18" t="s" s="2">
         <v>38</v>
@@ -3066,27 +3062,27 @@
         <v>40</v>
       </c>
       <c r="AJ18" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK18" t="s" s="2">
+        <v>165</v>
+      </c>
+      <c r="AL18" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM18" t="s" s="2">
         <v>166</v>
       </c>
-      <c r="AL18" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM18" t="s" s="2">
+      <c r="AN18" t="s" s="2">
         <v>167</v>
-      </c>
-      <c r="AN18" t="s" s="2">
-        <v>168</v>
       </c>
     </row>
     <row r="19" hidden="true">
       <c r="A19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B19" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C19" s="2"/>
       <c r="D19" t="s" s="2">
@@ -3094,28 +3090,28 @@
       </c>
       <c r="E19" s="2"/>
       <c r="F19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G19" t="s" s="2">
+      <c r="J19" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I19" t="s" s="2">
-        <v>51</v>
-      </c>
-      <c r="J19" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K19" t="s" s="2">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="L19" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="M19" t="s" s="2">
         <v>170</v>
-      </c>
-      <c r="M19" t="s" s="2">
-        <v>171</v>
       </c>
       <c r="N19" s="2"/>
       <c r="O19" s="2"/>
@@ -3142,92 +3138,92 @@
         <v>40</v>
       </c>
       <c r="X19" t="s" s="2">
+        <v>171</v>
+      </c>
+      <c r="Y19" t="s" s="2">
         <v>172</v>
       </c>
-      <c r="Y19" t="s" s="2">
+      <c r="Z19" t="s" s="2">
         <v>173</v>
       </c>
-      <c r="Z19" t="s" s="2">
+      <c r="AA19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AB19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AC19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AD19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AE19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AF19" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="AG19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AH19" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="AI19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AJ19" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AK19" t="s" s="2">
         <v>174</v>
       </c>
-      <c r="AA19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AB19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AC19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AD19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AE19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AF19" t="s" s="2">
-        <v>169</v>
-      </c>
-      <c r="AG19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AH19" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="AI19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AJ19" t="s" s="2">
-        <v>62</v>
-      </c>
-      <c r="AK19" t="s" s="2">
+      <c r="AL19" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM19" t="s" s="2">
         <v>175</v>
       </c>
-      <c r="AL19" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM19" t="s" s="2">
+      <c r="AN19" t="s" s="2">
         <v>176</v>
-      </c>
-      <c r="AN19" t="s" s="2">
-        <v>177</v>
       </c>
     </row>
     <row r="20" hidden="true">
       <c r="A20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C20" s="2"/>
       <c r="D20" t="s" s="2">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="G20" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J20" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="H20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J20" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K20" t="s" s="2">
+        <v>179</v>
+      </c>
+      <c r="L20" t="s" s="2">
         <v>180</v>
       </c>
-      <c r="L20" t="s" s="2">
+      <c r="M20" t="s" s="2">
         <v>181</v>
-      </c>
-      <c r="M20" t="s" s="2">
-        <v>182</v>
       </c>
       <c r="N20" s="2"/>
       <c r="O20" s="2"/>
@@ -3278,39 +3274,39 @@
         <v>40</v>
       </c>
       <c r="AF20" t="s" s="2">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="AG20" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH20" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI20" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ20" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK20" t="s" s="2">
+        <v>182</v>
+      </c>
+      <c r="AL20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AM20" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="AN20" t="s" s="2">
         <v>183</v>
-      </c>
-      <c r="AL20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AM20" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="AN20" t="s" s="2">
-        <v>184</v>
       </c>
     </row>
     <row r="21" hidden="true">
       <c r="A21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="2"/>
       <c r="D21" t="s" s="2">
@@ -3318,28 +3314,28 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G21" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I21" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J21" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G21" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I21" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J21" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K21" t="s" s="2">
+        <v>185</v>
+      </c>
+      <c r="L21" t="s" s="2">
         <v>186</v>
       </c>
-      <c r="L21" t="s" s="2">
+      <c r="M21" t="s" s="2">
         <v>187</v>
-      </c>
-      <c r="M21" t="s" s="2">
-        <v>188</v>
       </c>
       <c r="N21" s="2"/>
       <c r="O21" s="2"/>
@@ -3390,22 +3386,22 @@
         <v>40</v>
       </c>
       <c r="AF21" t="s" s="2">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="AG21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH21" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI21" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ21" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK21" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="AL21" t="s" s="2">
         <v>40</v>
@@ -3419,10 +3415,10 @@
     </row>
     <row r="22" hidden="true">
       <c r="A22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="2"/>
       <c r="D22" t="s" s="2">
@@ -3430,28 +3426,28 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="G22" t="s" s="2">
+        <v>49</v>
+      </c>
+      <c r="H22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="I22" t="s" s="2">
+        <v>40</v>
+      </c>
+      <c r="J22" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="G22" t="s" s="2">
-        <v>50</v>
-      </c>
-      <c r="H22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="I22" t="s" s="2">
-        <v>40</v>
-      </c>
-      <c r="J22" t="s" s="2">
-        <v>51</v>
-      </c>
       <c r="K22" t="s" s="2">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s" s="2">
         <v>191</v>
       </c>
-      <c r="L22" t="s" s="2">
+      <c r="M22" t="s" s="2">
         <v>192</v>
-      </c>
-      <c r="M22" t="s" s="2">
-        <v>193</v>
       </c>
       <c r="N22" s="2"/>
       <c r="O22" s="2"/>
@@ -3502,22 +3498,22 @@
         <v>40</v>
       </c>
       <c r="AF22" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="AG22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AH22" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI22" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ22" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK22" t="s" s="2">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="AL22" t="s" s="2">
         <v>40</v>
@@ -3531,10 +3527,10 @@
     </row>
     <row r="23" hidden="true">
       <c r="A23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" t="s" s="2">
@@ -3545,7 +3541,7 @@
         <v>38</v>
       </c>
       <c r="G23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H23" t="s" s="2">
         <v>40</v>
@@ -3557,13 +3553,13 @@
         <v>40</v>
       </c>
       <c r="K23" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L23" t="s" s="2">
+        <v>194</v>
+      </c>
+      <c r="M23" t="s" s="2">
         <v>195</v>
-      </c>
-      <c r="M23" t="s" s="2">
-        <v>196</v>
       </c>
       <c r="N23" s="2"/>
       <c r="O23" s="2"/>
@@ -3614,22 +3610,22 @@
         <v>40</v>
       </c>
       <c r="AF23" t="s" s="2">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="AG23" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH23" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI23" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ23" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK23" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL23" t="s" s="2">
         <v>40</v>
@@ -3643,10 +3639,10 @@
     </row>
     <row r="24" hidden="true">
       <c r="A24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" t="s" s="2">
@@ -3657,7 +3653,7 @@
         <v>38</v>
       </c>
       <c r="G24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H24" t="s" s="2">
         <v>40</v>
@@ -3669,13 +3665,13 @@
         <v>40</v>
       </c>
       <c r="K24" t="s" s="2">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="L24" t="s" s="2">
+        <v>198</v>
+      </c>
+      <c r="M24" t="s" s="2">
         <v>199</v>
-      </c>
-      <c r="M24" t="s" s="2">
-        <v>200</v>
       </c>
       <c r="N24" s="2"/>
       <c r="O24" s="2"/>
@@ -3726,22 +3722,22 @@
         <v>40</v>
       </c>
       <c r="AF24" t="s" s="2">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="AG24" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH24" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI24" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ24" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK24" t="s" s="2">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="AL24" t="s" s="2">
         <v>40</v>
@@ -3755,10 +3751,10 @@
     </row>
     <row r="25" hidden="true">
       <c r="A25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C25" s="2"/>
       <c r="D25" t="s" s="2">
@@ -3769,7 +3765,7 @@
         <v>38</v>
       </c>
       <c r="G25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="H25" t="s" s="2">
         <v>40</v>
@@ -3781,13 +3777,13 @@
         <v>40</v>
       </c>
       <c r="K25" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L25" t="s" s="2">
         <v>202</v>
       </c>
-      <c r="L25" t="s" s="2">
+      <c r="M25" t="s" s="2">
         <v>203</v>
-      </c>
-      <c r="M25" t="s" s="2">
-        <v>204</v>
       </c>
       <c r="N25" s="2"/>
       <c r="O25" s="2"/>
@@ -3838,22 +3834,22 @@
         <v>40</v>
       </c>
       <c r="AF25" t="s" s="2">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="AG25" t="s" s="2">
         <v>38</v>
       </c>
       <c r="AH25" t="s" s="2">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="AI25" t="s" s="2">
         <v>40</v>
       </c>
       <c r="AJ25" t="s" s="2">
-        <v>62</v>
+        <v>124</v>
       </c>
       <c r="AK25" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="AL25" t="s" s="2">
         <v>40</v>
